--- a/src/main/resources/templates/export/用户信息.xlsx
+++ b/src/main/resources/templates/export/用户信息.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="57">
   <si>
     <t>kk</t>
   </si>
@@ -155,6 +155,42 @@
   </si>
   <si>
     <t>admin2</t>
+  </si>
+  <si>
+    <t>avatarUrl</t>
+  </si>
+  <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Emp</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>http://localhost:8088/file/download/3db4bb6782024621a710ed0a69013cdd.jpg</t>
+  </si>
+  <si>
+    <t>http://localhost:8088/file/download/2da365e6db1e41c4aec5b753df314270.png</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>li</t>
   </si>
 </sst>
 </file>
@@ -162,7 +198,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -176,6 +212,24 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -291,7 +345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +383,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -654,143 +753,206 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="23" t="s">
         <v>36</v>
       </c>
+      <c r="G1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E2" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <v>45373.67445601852</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="24" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E3" s="24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="26" t="n">
+        <v>45435.67449074074</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="24" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E4" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="26" t="n">
+        <v>45648.67453703703</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="26" t="n">
+        <v>44621.674629629626</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="E2" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="C6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="24" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="E3" s="9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="26" t="n">
+        <v>45474.674722222226</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="E7" s="24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="E4" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
+      <c r="G7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="26" t="n">
+        <v>45464.674791666665</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
